--- a/ONCHO/Entomological survey Survey/Nigeria/2024/cross river/ng_oncho_2407_1_community_crs.xlsx
+++ b/ONCHO/Entomological survey Survey/Nigeria/2024/cross river/ng_oncho_2407_1_community_crs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Nigeria\2024\cross river\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57992A3-214A-411D-B32E-082D1B476FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BE3F8D-53C5-4DB0-90D7-48BFF0E2D8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
